--- a/python/app/excel_format/backup/06月作業報告書.xlsx
+++ b/python/app/excel_format/backup/06月作業報告書.xlsx
@@ -21295,7 +21295,7 @@
     <row r="8" ht="20.25" customHeight="1">
       <c r="A8" s="57" t="inlineStr">
         <is>
-          <t>2024/6/1</t>
+          <t>2024年6月</t>
         </is>
       </c>
       <c r="B8" s="25" t="inlineStr">
@@ -21346,9 +21346,10 @@
       <c r="T8" s="29" t="n"/>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="A9" s="51">
-        <f>A8</f>
-        <v/>
+      <c r="A9" s="51" t="inlineStr">
+        <is>
+          <t>6月1日(Sat)</t>
+        </is>
       </c>
       <c r="B9" s="52" t="inlineStr">
         <is>
@@ -21381,9 +21382,10 @@
       <c r="H9" s="54" t="n"/>
     </row>
     <row r="10" ht="25.5" customHeight="1">
-      <c r="A10" s="51">
-        <f>A9+1</f>
-        <v/>
+      <c r="A10" s="51" t="inlineStr">
+        <is>
+          <t>6月2日(Sun)</t>
+        </is>
       </c>
       <c r="B10" s="52" t="inlineStr">
         <is>
@@ -21412,9 +21414,10 @@
       <c r="H10" s="54" t="n"/>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="A11" s="51">
-        <f>A10+1</f>
-        <v/>
+      <c r="A11" s="51" t="inlineStr">
+        <is>
+          <t>6月3日(Mon)</t>
+        </is>
       </c>
       <c r="B11" s="52" t="n">
         <v>0</v>
@@ -21435,9 +21438,10 @@
       <c r="H11" s="54" t="n"/>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="A12" s="51">
-        <f>A11+1</f>
-        <v/>
+      <c r="A12" s="51" t="inlineStr">
+        <is>
+          <t>6月4日(Tue)</t>
+        </is>
       </c>
       <c r="B12" s="52" t="n">
         <v>0</v>
@@ -21458,9 +21462,10 @@
       <c r="H12" s="54" t="n"/>
     </row>
     <row r="13" ht="25.5" customHeight="1">
-      <c r="A13" s="51">
-        <f>A12+1</f>
-        <v/>
+      <c r="A13" s="51" t="inlineStr">
+        <is>
+          <t>6月5日(Wed)</t>
+        </is>
       </c>
       <c r="B13" s="52" t="n">
         <v>0</v>
@@ -21481,9 +21486,10 @@
       <c r="H13" s="54" t="n"/>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="A14" s="51">
-        <f>A13+1</f>
-        <v/>
+      <c r="A14" s="51" t="inlineStr">
+        <is>
+          <t>6月6日(Thu)</t>
+        </is>
       </c>
       <c r="B14" s="52" t="n">
         <v>0</v>
@@ -21504,9 +21510,10 @@
       <c r="H14" s="54" t="n"/>
     </row>
     <row r="15" ht="25.5" customHeight="1">
-      <c r="A15" s="51">
-        <f>A14+1</f>
-        <v/>
+      <c r="A15" s="51" t="inlineStr">
+        <is>
+          <t>6月7日(Fri)</t>
+        </is>
       </c>
       <c r="B15" s="52" t="n">
         <v>0</v>
@@ -21527,9 +21534,10 @@
       <c r="H15" s="54" t="n"/>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="A16" s="51">
-        <f>A15+1</f>
-        <v/>
+      <c r="A16" s="51" t="inlineStr">
+        <is>
+          <t>6月8日(Sat)</t>
+        </is>
       </c>
       <c r="B16" s="52" t="n">
         <v>0</v>
@@ -21550,9 +21558,10 @@
       <c r="H16" s="54" t="n"/>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="A17" s="51">
-        <f>A16+1</f>
-        <v/>
+      <c r="A17" s="51" t="inlineStr">
+        <is>
+          <t>6月9日(Sun)</t>
+        </is>
       </c>
       <c r="B17" s="52" t="n">
         <v>0</v>
@@ -21573,9 +21582,10 @@
       <c r="H17" s="54" t="n"/>
     </row>
     <row r="18" ht="25.5" customHeight="1">
-      <c r="A18" s="51">
-        <f>A17+1</f>
-        <v/>
+      <c r="A18" s="51" t="inlineStr">
+        <is>
+          <t>6月10日(Mon)</t>
+        </is>
       </c>
       <c r="B18" s="52" t="n">
         <v>0</v>
@@ -21596,9 +21606,10 @@
       <c r="H18" s="54" t="n"/>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="A19" s="51">
-        <f>A18+1</f>
-        <v/>
+      <c r="A19" s="51" t="inlineStr">
+        <is>
+          <t>6月11日(Tue)</t>
+        </is>
       </c>
       <c r="B19" s="52" t="n">
         <v>0</v>
@@ -21619,9 +21630,10 @@
       <c r="H19" s="54" t="n"/>
     </row>
     <row r="20" ht="25.5" customHeight="1">
-      <c r="A20" s="51">
-        <f>A19+1</f>
-        <v/>
+      <c r="A20" s="51" t="inlineStr">
+        <is>
+          <t>6月12日(Wed)</t>
+        </is>
       </c>
       <c r="B20" s="52" t="n">
         <v>0</v>
@@ -21642,9 +21654,10 @@
       <c r="H20" s="54" t="n"/>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="A21" s="51">
-        <f>A20+1</f>
-        <v/>
+      <c r="A21" s="51" t="inlineStr">
+        <is>
+          <t>6月13日(Thu)</t>
+        </is>
       </c>
       <c r="B21" s="52" t="n">
         <v>0</v>
@@ -21665,9 +21678,10 @@
       <c r="H21" s="54" t="n"/>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="A22" s="51">
-        <f>A21+1</f>
-        <v/>
+      <c r="A22" s="51" t="inlineStr">
+        <is>
+          <t>6月14日(Fri)</t>
+        </is>
       </c>
       <c r="B22" s="52" t="n">
         <v>0</v>
@@ -21688,9 +21702,10 @@
       <c r="H22" s="54" t="n"/>
     </row>
     <row r="23" ht="25.5" customHeight="1">
-      <c r="A23" s="51">
-        <f>A22+1</f>
-        <v/>
+      <c r="A23" s="51" t="inlineStr">
+        <is>
+          <t>6月15日(Sat)</t>
+        </is>
       </c>
       <c r="B23" s="52" t="n">
         <v>0</v>
@@ -21711,9 +21726,10 @@
       <c r="H23" s="54" t="n"/>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="A24" s="51">
-        <f>A23+1</f>
-        <v/>
+      <c r="A24" s="51" t="inlineStr">
+        <is>
+          <t>6月16日(Sun)</t>
+        </is>
       </c>
       <c r="B24" s="52" t="n">
         <v>0</v>
@@ -21734,9 +21750,10 @@
       <c r="H24" s="54" t="n"/>
     </row>
     <row r="25" ht="25.5" customHeight="1">
-      <c r="A25" s="51">
-        <f>A24+1</f>
-        <v/>
+      <c r="A25" s="51" t="inlineStr">
+        <is>
+          <t>6月17日(Mon)</t>
+        </is>
       </c>
       <c r="B25" s="52" t="n">
         <v>0</v>
@@ -21757,9 +21774,10 @@
       <c r="H25" s="54" t="n"/>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="A26" s="51">
-        <f>A25+1</f>
-        <v/>
+      <c r="A26" s="51" t="inlineStr">
+        <is>
+          <t>6月18日(Tue)</t>
+        </is>
       </c>
       <c r="B26" s="52" t="n">
         <v>0</v>
@@ -21780,9 +21798,10 @@
       <c r="H26" s="54" t="n"/>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="A27" s="51">
-        <f>A26+1</f>
-        <v/>
+      <c r="A27" s="51" t="inlineStr">
+        <is>
+          <t>6月19日(Wed)</t>
+        </is>
       </c>
       <c r="B27" s="52" t="n">
         <v>0</v>
@@ -21803,9 +21822,10 @@
       <c r="H27" s="54" t="n"/>
     </row>
     <row r="28" ht="25.5" customHeight="1">
-      <c r="A28" s="51">
-        <f>A27+1</f>
-        <v/>
+      <c r="A28" s="51" t="inlineStr">
+        <is>
+          <t>6月20日(Thu)</t>
+        </is>
       </c>
       <c r="B28" s="52" t="n">
         <v>0</v>
@@ -21826,9 +21846,10 @@
       <c r="H28" s="54" t="n"/>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="A29" s="51">
-        <f>A28+1</f>
-        <v/>
+      <c r="A29" s="51" t="inlineStr">
+        <is>
+          <t>6月21日(Fri)</t>
+        </is>
       </c>
       <c r="B29" s="52" t="n">
         <v>0</v>
@@ -21849,9 +21870,10 @@
       <c r="H29" s="54" t="n"/>
     </row>
     <row r="30" ht="25.5" customHeight="1">
-      <c r="A30" s="51">
-        <f>A29+1</f>
-        <v/>
+      <c r="A30" s="51" t="inlineStr">
+        <is>
+          <t>6月22日(Sat)</t>
+        </is>
       </c>
       <c r="B30" s="52" t="n">
         <v>0</v>
@@ -21872,9 +21894,10 @@
       <c r="H30" s="54" t="n"/>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="A31" s="51">
-        <f>A30+1</f>
-        <v/>
+      <c r="A31" s="51" t="inlineStr">
+        <is>
+          <t>6月23日(Sun)</t>
+        </is>
       </c>
       <c r="B31" s="52" t="n">
         <v>0</v>
@@ -21895,9 +21918,10 @@
       <c r="H31" s="54" t="n"/>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="A32" s="51">
-        <f>A31+1</f>
-        <v/>
+      <c r="A32" s="51" t="inlineStr">
+        <is>
+          <t>6月24日(Mon)</t>
+        </is>
       </c>
       <c r="B32" s="52" t="n">
         <v>0</v>
@@ -21918,9 +21942,10 @@
       <c r="H32" s="54" t="n"/>
     </row>
     <row r="33" ht="25.5" customHeight="1">
-      <c r="A33" s="51">
-        <f>A32+1</f>
-        <v/>
+      <c r="A33" s="51" t="inlineStr">
+        <is>
+          <t>6月25日(Tue)</t>
+        </is>
       </c>
       <c r="B33" s="52" t="n">
         <v>0</v>
@@ -21941,9 +21966,10 @@
       <c r="H33" s="54" t="n"/>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="A34" s="51">
-        <f>A33+1</f>
-        <v/>
+      <c r="A34" s="51" t="inlineStr">
+        <is>
+          <t>6月26日(Wed)</t>
+        </is>
       </c>
       <c r="B34" s="52" t="n">
         <v>0</v>
@@ -21964,9 +21990,10 @@
       <c r="H34" s="54" t="n"/>
     </row>
     <row r="35" ht="25.5" customHeight="1">
-      <c r="A35" s="51">
-        <f>A34+1</f>
-        <v/>
+      <c r="A35" s="51" t="inlineStr">
+        <is>
+          <t>6月27日(Thu)</t>
+        </is>
       </c>
       <c r="B35" s="52" t="n">
         <v>0</v>
@@ -21987,9 +22014,10 @@
       <c r="H35" s="54" t="n"/>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="A36" s="51">
-        <f>A35+1</f>
-        <v/>
+      <c r="A36" s="51" t="inlineStr">
+        <is>
+          <t>6月28日(Fri)</t>
+        </is>
       </c>
       <c r="B36" s="52" t="n">
         <v>0</v>
@@ -22010,9 +22038,10 @@
       <c r="H36" s="54" t="n"/>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="A37" s="51">
-        <f>IF(MONTH(A36)=MONTH(A36+1),A36+1,"")</f>
-        <v/>
+      <c r="A37" s="51" t="inlineStr">
+        <is>
+          <t>6月29日(Sat)</t>
+        </is>
       </c>
       <c r="B37" s="52" t="n">
         <v>0</v>
@@ -22033,9 +22062,10 @@
       <c r="H37" s="54" t="n"/>
     </row>
     <row r="38" ht="25.5" customHeight="1">
-      <c r="A38" s="51">
-        <f>IF(MONTH(A37)=MONTH(A37+1),A37+1,"")</f>
-        <v/>
+      <c r="A38" s="51" t="inlineStr">
+        <is>
+          <t>6月30日(Sun)</t>
+        </is>
       </c>
       <c r="B38" s="52" t="n">
         <v>0</v>
@@ -22056,10 +22086,7 @@
       <c r="H38" s="54" t="n"/>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="A39" s="51">
-        <f>IF(A38="","", IF(MONTH(A38)=MONTH(A38+1),A38+1,""))</f>
-        <v/>
-      </c>
+      <c r="A39" s="51" t="inlineStr"/>
       <c r="B39" s="52" t="n">
         <v>0</v>
       </c>

--- a/python/app/excel_format/backup/06月作業報告書.xlsx
+++ b/python/app/excel_format/backup/06月作業報告書.xlsx
@@ -21348,7 +21348,7 @@
     <row r="9" ht="25.5" customHeight="1">
       <c r="A9" s="51" t="inlineStr">
         <is>
-          <t>6月1日(Sat)</t>
+          <t>6月1日(土)</t>
         </is>
       </c>
       <c r="B9" s="52" t="inlineStr">
@@ -21361,9 +21361,10 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="D9" s="53">
-        <f>IF((C9-B9)*24&gt;=8,IF(OR(WEEKDAY(A9)=2,WEEKDAY(A9)=3,WEEKDAY(A9)=4,WEEKDAY(A9)=5,WEEKDAY(A9)=6),"1:00",""),"")</f>
-        <v/>
+      <c r="D9" s="53" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
       </c>
       <c r="E9" s="53">
         <f>C9-B9-D9</f>
@@ -21384,7 +21385,7 @@
     <row r="10" ht="25.5" customHeight="1">
       <c r="A10" s="51" t="inlineStr">
         <is>
-          <t>6月2日(Sun)</t>
+          <t>6月2日(日)</t>
         </is>
       </c>
       <c r="B10" s="52" t="inlineStr">
@@ -21397,9 +21398,10 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="D10" s="53">
-        <f>IF((C10-B10)*24&gt;=8,IF(OR(WEEKDAY(A10)=2,WEEKDAY(A10)=3,WEEKDAY(A10)=4,WEEKDAY(A10)=5,WEEKDAY(A10)=6),"1:00",""),"")</f>
-        <v/>
+      <c r="D10" s="53" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
       </c>
       <c r="E10" s="53">
         <f>C10-B10-D10</f>
@@ -21416,7 +21418,7 @@
     <row r="11" ht="25.5" customHeight="1">
       <c r="A11" s="51" t="inlineStr">
         <is>
-          <t>6月3日(Mon)</t>
+          <t>6月3日(月)</t>
         </is>
       </c>
       <c r="B11" s="52" t="n">
@@ -21440,7 +21442,7 @@
     <row r="12" ht="25.5" customHeight="1">
       <c r="A12" s="51" t="inlineStr">
         <is>
-          <t>6月4日(Tue)</t>
+          <t>6月4日(火)</t>
         </is>
       </c>
       <c r="B12" s="52" t="n">
@@ -21464,7 +21466,7 @@
     <row r="13" ht="25.5" customHeight="1">
       <c r="A13" s="51" t="inlineStr">
         <is>
-          <t>6月5日(Wed)</t>
+          <t>6月5日(水)</t>
         </is>
       </c>
       <c r="B13" s="52" t="n">
@@ -21488,7 +21490,7 @@
     <row r="14" ht="25.5" customHeight="1">
       <c r="A14" s="51" t="inlineStr">
         <is>
-          <t>6月6日(Thu)</t>
+          <t>6月6日(木)</t>
         </is>
       </c>
       <c r="B14" s="52" t="n">
@@ -21512,7 +21514,7 @@
     <row r="15" ht="25.5" customHeight="1">
       <c r="A15" s="51" t="inlineStr">
         <is>
-          <t>6月7日(Fri)</t>
+          <t>6月7日(金)</t>
         </is>
       </c>
       <c r="B15" s="52" t="n">
@@ -21536,7 +21538,7 @@
     <row r="16" ht="25.5" customHeight="1">
       <c r="A16" s="51" t="inlineStr">
         <is>
-          <t>6月8日(Sat)</t>
+          <t>6月8日(土)</t>
         </is>
       </c>
       <c r="B16" s="52" t="n">
@@ -21560,7 +21562,7 @@
     <row r="17" ht="25.5" customHeight="1">
       <c r="A17" s="51" t="inlineStr">
         <is>
-          <t>6月9日(Sun)</t>
+          <t>6月9日(日)</t>
         </is>
       </c>
       <c r="B17" s="52" t="n">
@@ -21584,7 +21586,7 @@
     <row r="18" ht="25.5" customHeight="1">
       <c r="A18" s="51" t="inlineStr">
         <is>
-          <t>6月10日(Mon)</t>
+          <t>6月10日(月)</t>
         </is>
       </c>
       <c r="B18" s="52" t="n">
@@ -21608,7 +21610,7 @@
     <row r="19" ht="25.5" customHeight="1">
       <c r="A19" s="51" t="inlineStr">
         <is>
-          <t>6月11日(Tue)</t>
+          <t>6月11日(火)</t>
         </is>
       </c>
       <c r="B19" s="52" t="n">
@@ -21632,7 +21634,7 @@
     <row r="20" ht="25.5" customHeight="1">
       <c r="A20" s="51" t="inlineStr">
         <is>
-          <t>6月12日(Wed)</t>
+          <t>6月12日(水)</t>
         </is>
       </c>
       <c r="B20" s="52" t="n">
@@ -21656,7 +21658,7 @@
     <row r="21" ht="25.5" customHeight="1">
       <c r="A21" s="51" t="inlineStr">
         <is>
-          <t>6月13日(Thu)</t>
+          <t>6月13日(木)</t>
         </is>
       </c>
       <c r="B21" s="52" t="n">
@@ -21680,7 +21682,7 @@
     <row r="22" ht="25.5" customHeight="1">
       <c r="A22" s="51" t="inlineStr">
         <is>
-          <t>6月14日(Fri)</t>
+          <t>6月14日(金)</t>
         </is>
       </c>
       <c r="B22" s="52" t="n">
@@ -21704,7 +21706,7 @@
     <row r="23" ht="25.5" customHeight="1">
       <c r="A23" s="51" t="inlineStr">
         <is>
-          <t>6月15日(Sat)</t>
+          <t>6月15日(土)</t>
         </is>
       </c>
       <c r="B23" s="52" t="n">
@@ -21728,7 +21730,7 @@
     <row r="24" ht="25.5" customHeight="1">
       <c r="A24" s="51" t="inlineStr">
         <is>
-          <t>6月16日(Sun)</t>
+          <t>6月16日(日)</t>
         </is>
       </c>
       <c r="B24" s="52" t="n">
@@ -21752,7 +21754,7 @@
     <row r="25" ht="25.5" customHeight="1">
       <c r="A25" s="51" t="inlineStr">
         <is>
-          <t>6月17日(Mon)</t>
+          <t>6月17日(月)</t>
         </is>
       </c>
       <c r="B25" s="52" t="n">
@@ -21776,7 +21778,7 @@
     <row r="26" ht="25.5" customHeight="1">
       <c r="A26" s="51" t="inlineStr">
         <is>
-          <t>6月18日(Tue)</t>
+          <t>6月18日(火)</t>
         </is>
       </c>
       <c r="B26" s="52" t="n">
@@ -21800,7 +21802,7 @@
     <row r="27" ht="25.5" customHeight="1">
       <c r="A27" s="51" t="inlineStr">
         <is>
-          <t>6月19日(Wed)</t>
+          <t>6月19日(水)</t>
         </is>
       </c>
       <c r="B27" s="52" t="n">
@@ -21824,7 +21826,7 @@
     <row r="28" ht="25.5" customHeight="1">
       <c r="A28" s="51" t="inlineStr">
         <is>
-          <t>6月20日(Thu)</t>
+          <t>6月20日(木)</t>
         </is>
       </c>
       <c r="B28" s="52" t="n">
@@ -21848,7 +21850,7 @@
     <row r="29" ht="25.5" customHeight="1">
       <c r="A29" s="51" t="inlineStr">
         <is>
-          <t>6月21日(Fri)</t>
+          <t>6月21日(金)</t>
         </is>
       </c>
       <c r="B29" s="52" t="n">
@@ -21872,7 +21874,7 @@
     <row r="30" ht="25.5" customHeight="1">
       <c r="A30" s="51" t="inlineStr">
         <is>
-          <t>6月22日(Sat)</t>
+          <t>6月22日(土)</t>
         </is>
       </c>
       <c r="B30" s="52" t="n">
@@ -21896,7 +21898,7 @@
     <row r="31" ht="25.5" customHeight="1">
       <c r="A31" s="51" t="inlineStr">
         <is>
-          <t>6月23日(Sun)</t>
+          <t>6月23日(日)</t>
         </is>
       </c>
       <c r="B31" s="52" t="n">
@@ -21920,7 +21922,7 @@
     <row r="32" ht="25.5" customHeight="1">
       <c r="A32" s="51" t="inlineStr">
         <is>
-          <t>6月24日(Mon)</t>
+          <t>6月24日(月)</t>
         </is>
       </c>
       <c r="B32" s="52" t="n">
@@ -21944,7 +21946,7 @@
     <row r="33" ht="25.5" customHeight="1">
       <c r="A33" s="51" t="inlineStr">
         <is>
-          <t>6月25日(Tue)</t>
+          <t>6月25日(火)</t>
         </is>
       </c>
       <c r="B33" s="52" t="n">
@@ -21968,7 +21970,7 @@
     <row r="34" ht="25.5" customHeight="1">
       <c r="A34" s="51" t="inlineStr">
         <is>
-          <t>6月26日(Wed)</t>
+          <t>6月26日(水)</t>
         </is>
       </c>
       <c r="B34" s="52" t="n">
@@ -21992,7 +21994,7 @@
     <row r="35" ht="25.5" customHeight="1">
       <c r="A35" s="51" t="inlineStr">
         <is>
-          <t>6月27日(Thu)</t>
+          <t>6月27日(木)</t>
         </is>
       </c>
       <c r="B35" s="52" t="n">
@@ -22016,7 +22018,7 @@
     <row r="36" ht="25.5" customHeight="1">
       <c r="A36" s="51" t="inlineStr">
         <is>
-          <t>6月28日(Fri)</t>
+          <t>6月28日(金)</t>
         </is>
       </c>
       <c r="B36" s="52" t="n">
@@ -22040,7 +22042,7 @@
     <row r="37" ht="25.5" customHeight="1">
       <c r="A37" s="51" t="inlineStr">
         <is>
-          <t>6月29日(Sat)</t>
+          <t>6月29日(土)</t>
         </is>
       </c>
       <c r="B37" s="52" t="n">
@@ -22064,7 +22066,7 @@
     <row r="38" ht="25.5" customHeight="1">
       <c r="A38" s="51" t="inlineStr">
         <is>
-          <t>6月30日(Sun)</t>
+          <t>6月30日(日)</t>
         </is>
       </c>
       <c r="B38" s="52" t="n">
